--- a/results/Whole_Brain_Tables_Updated.xlsx
+++ b/results/Whole_Brain_Tables_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickkathios/Documents/Research/SSA MCI Analyses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80942D0-B468-2D43-A4CB-C88CECC818B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF88DE2-C94B-E345-9878-06EBC867E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="500" windowWidth="24220" windowHeight="15820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17300" yWindow="500" windowWidth="21100" windowHeight="15820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Univariate" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>Region(s)/Clusters</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Planum Temporale/Heschl's Gyrus (L)</t>
   </si>
   <si>
-    <t>Planum Temporale/STG (L)</t>
-  </si>
-  <si>
     <t>STG (R)</t>
   </si>
   <si>
@@ -227,6 +224,18 @@
   </si>
   <si>
     <t>Thalamus/Pallidum</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>MTG</t>
+  </si>
+  <si>
+    <t>Heschl's Gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planum Temporale </t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -373,11 +382,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -476,6 +494,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,6 +530,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,14 +548,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,14 +860,14 @@
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -874,20 +904,20 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="28" t="s">
-        <v>39</v>
+      <c r="B6" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>-54</v>
@@ -901,120 +931,156 @@
       <c r="F6" s="1">
         <v>184</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>174</v>
-      </c>
+      <c r="B7" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="1">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>174</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C12" s="1">
         <v>-60</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="1">
         <v>-21</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E12" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F12" s="9">
         <v>217</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="G12" s="9"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
         <v>63</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D13" s="1">
         <v>-18</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E13" s="27">
         <v>6</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F13" s="27">
         <v>216</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:E11"/>
+  <mergeCells count="7">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1026,7 +1092,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1046,14 +1112,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1087,14 +1153,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1130,7 +1196,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="31">
@@ -1151,7 +1217,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="31">
         <v>54</v>
       </c>
@@ -1170,7 +1236,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="31">
         <v>-38</v>
@@ -1190,8 +1256,8 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="45" t="s">
-        <v>46</v>
+      <c r="B11" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="31">
         <v>-30</v>
@@ -1210,8 +1276,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="31">
         <v>30</v>
       </c>
@@ -1229,7 +1295,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1316,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1271,9 +1337,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="31">
         <v>-42</v>
@@ -1292,9 +1358,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="31">
         <v>34</v>
@@ -1313,7 +1379,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1334,9 +1400,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="31">
         <v>10</v>
@@ -1359,7 +1425,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -1384,9 +1450,9 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="31">
         <v>36</v>
@@ -1409,7 +1475,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1434,9 +1500,9 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="37">
         <v>-6</v>
@@ -1459,12 +1525,12 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
     </row>
@@ -1516,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
@@ -1539,14 +1605,14 @@
     </row>
     <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -1580,19 +1646,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="19">
         <v>-50</v>
@@ -1613,7 +1679,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="19">
         <v>46</v>
@@ -1695,7 +1761,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1716,7 +1782,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1803,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1758,20 +1824,20 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="20">
         <v>-48</v>
@@ -1790,7 +1856,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
@@ -1811,7 +1877,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1832,9 +1898,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="19">
         <v>-6</v>
@@ -1853,7 +1919,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1940,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1961,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1916,7 +1982,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1937,7 +2003,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1958,7 +2024,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +2045,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2173,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="19">
         <v>30</v>
@@ -2128,7 +2194,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="19">
         <v>42</v>
@@ -2190,14 +2256,14 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
@@ -2264,14 +2330,14 @@
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="49"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
@@ -2280,7 +2346,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="20"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="50"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
@@ -2289,16 +2355,16 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="50"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="50"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -2319,14 +2385,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G39:G42"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="A11:A25"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G39:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2338,7 +2404,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2357,14 +2423,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2398,14 +2464,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -2452,7 +2518,7 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -2461,7 +2527,7 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="30"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -2470,7 +2536,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="30"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -2479,20 +2545,20 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="25">
         <v>54</v>
@@ -2509,9 +2575,9 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="25">
         <v>-54</v>
@@ -2528,9 +2594,9 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="25">
         <v>6</v>
@@ -2547,9 +2613,9 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="25">
         <v>-14</v>
@@ -2566,9 +2632,9 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="25">
         <v>58</v>
@@ -2585,9 +2651,9 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="25">
         <v>36</v>
@@ -2604,31 +2670,31 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="25">
         <v>-8</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="40">
         <v>-6</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="40">
         <v>2</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="40">
         <v>98</v>
       </c>
-      <c r="G21" s="53"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="32"/>
       <c r="G22" s="1"/>
     </row>

--- a/results/Whole_Brain_Tables_Updated.xlsx
+++ b/results/Whole_Brain_Tables_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickkathios/Documents/Research/SSA MCI Analyses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF88DE2-C94B-E345-9878-06EBC867E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330EC44B-690F-1F40-A8DB-63637FDE44D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17300" yWindow="500" windowWidth="21100" windowHeight="15820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="500" windowWidth="21100" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Univariate" sheetId="4" r:id="rId1"/>
@@ -503,6 +503,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,21 +518,33 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -537,21 +552,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,14 +860,14 @@
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -904,19 +904,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="41" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="1">
@@ -936,19 +936,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="1">
         <v>54</v>
       </c>
@@ -990,14 +990,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1040,19 +1040,19 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1091,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93548F9-289F-5C4C-9344-6B7F18B06E96}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1112,14 +1112,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1153,14 +1153,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="31">
@@ -1217,7 +1217,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="31">
         <v>54</v>
       </c>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="31">
@@ -1276,8 +1276,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="31">
         <v>30</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1358,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>48</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="13" t="s">
         <v>47</v>
       </c>
@@ -1525,12 +1525,12 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="7"/>
       <c r="G23" s="1"/>
     </row>
@@ -1605,14 +1605,14 @@
     </row>
     <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -1646,14 +1646,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1824,18 +1824,18 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="20" t="s">
         <v>51</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +1898,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1961,7 +1961,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
@@ -2256,14 +2256,14 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
@@ -2330,14 +2330,14 @@
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="54"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
@@ -2346,7 +2346,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="20"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="55"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
@@ -2355,16 +2355,16 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="55"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="55"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -2385,14 +2385,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A11:A25"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="G39:G42"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A11:A25"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2403,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575D1B1-CCBC-6D4C-B062-51074FA56FC2}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2423,14 +2423,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2464,14 +2464,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -2518,7 +2518,7 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -2527,7 +2527,7 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="30"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -2536,7 +2536,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="30"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -2545,18 +2545,18 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="25" t="s">
         <v>56</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="25" t="s">
         <v>57</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="33" t="s">
         <v>58</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="26" t="s">
         <v>59</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="26" t="s">
         <v>60</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="34" t="s">
         <v>61</v>
       </c>
@@ -2689,12 +2689,12 @@
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="32"/>
       <c r="G22" s="1"/>
     </row>
